--- a/Planificación de las Tareas.xlsx
+++ b/Planificación de las Tareas.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -186,9 +186,6 @@
     <t xml:space="preserve">           Rendimiento de la Capa</t>
   </si>
   <si>
-    <t>- Importar, Exportar y Gestionar Fichas de Costos</t>
-  </si>
-  <si>
     <t xml:space="preserve">           Clasificador de Cargos x UEB</t>
   </si>
   <si>
@@ -229,6 +226,15 @@
   </si>
   <si>
     <t>Cronograma del Proyecto Control del Flujo y Costos para ETTVCL</t>
+  </si>
+  <si>
+    <t>- Importar, Exportar y Gestionar Fichas de Costos Torcido</t>
+  </si>
+  <si>
+    <t>- Importar, Exportar y Gestionar Fichas de Costos Terminado</t>
+  </si>
+  <si>
+    <t>- Gestionar Fichas de Costos para Línea de Salida</t>
   </si>
 </sst>
 </file>
@@ -272,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -368,17 +374,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -423,6 +418,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -432,46 +459,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D116"/>
+  <dimension ref="B1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,11 +764,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -790,75 +785,75 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="26">
         <v>45352</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="26">
         <v>45376</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="30">
         <v>45377</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="30">
         <v>45407</v>
       </c>
     </row>
@@ -866,197 +861,197 @@
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="26">
         <v>45408</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="26">
         <v>45436</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+        <v>54</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="19">
         <v>45438</v>
       </c>
-      <c r="D40" s="20">
+      <c r="D40" s="19">
         <v>45468</v>
       </c>
     </row>
@@ -1064,73 +1059,73 @@
       <c r="B41" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="19">
         <v>45469</v>
       </c>
-      <c r="D50" s="20">
+      <c r="D50" s="19">
         <v>45496</v>
       </c>
     </row>
@@ -1138,66 +1133,66 @@
       <c r="B51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="19">
         <v>45502</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="19">
         <v>45527</v>
       </c>
     </row>
@@ -1205,346 +1200,360 @@
       <c r="B60" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+        <v>53</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+        <v>54</v>
+      </c>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="20">
+      <c r="B68" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="19">
         <v>45530</v>
       </c>
-      <c r="D68" s="20">
+      <c r="D68" s="19">
         <v>45560</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
+      <c r="B69" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
+      <c r="B70" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="19">
+        <v>45561</v>
+      </c>
+      <c r="D73" s="19">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="25" t="s">
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="20">
-        <v>45561</v>
-      </c>
-      <c r="D73" s="20">
-        <v>45590</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="26"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C75" s="20">
-        <v>45593</v>
-      </c>
-      <c r="D75" s="20">
-        <v>45625</v>
-      </c>
+      <c r="C75" s="21"/>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="C76" s="19">
+        <v>45593</v>
+      </c>
+      <c r="D76" s="19">
+        <v>45625</v>
+      </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="25" t="s">
+      <c r="B77" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="30"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
+      <c r="B78" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="30"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="30"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="30"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="30"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="30"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="30"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" s="30"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" s="30"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="30"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="C3:C11"/>
+    <mergeCell ref="D3:D11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C12:C25"/>
+    <mergeCell ref="D12:D25"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="D76:D78"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="C59:C67"/>
     <mergeCell ref="D59:D67"/>
     <mergeCell ref="C68:C72"/>
     <mergeCell ref="D68:D72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:D75"/>
     <mergeCell ref="C50:C58"/>
     <mergeCell ref="D50:D58"/>
     <mergeCell ref="B26:B27"/>
@@ -1552,13 +1561,6 @@
     <mergeCell ref="D26:D39"/>
     <mergeCell ref="C40:C49"/>
     <mergeCell ref="D40:D49"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="D3:D11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C12:C25"/>
-    <mergeCell ref="D12:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
